--- a/Autism-prediction/Data/Outcome Statistics Comparison.xlsx
+++ b/Autism-prediction/Data/Outcome Statistics Comparison.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliverzagorin/Desktop/GW_Bootcamp/Homework/Autism-Diagnosis-with-Supervised-Machine-Learning-and-Neural-Networks-using-Resampling/Autism-prediction/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A130071C-A3AB-6A40-8DC8-5523F052C41F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92484737-4775-4A4A-9237-B46A939FAD34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="3840" windowWidth="27940" windowHeight="16160" xr2:uid="{C75354E3-B14A-0C40-AF4E-AB7891C09CE5}"/>
+    <workbookView xWindow="2940" yWindow="3820" windowWidth="27940" windowHeight="16160" xr2:uid="{C75354E3-B14A-0C40-AF4E-AB7891C09CE5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Grid" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -56,13 +56,13 @@
     <t>Optimized Neural Network</t>
   </si>
   <si>
-    <t>Accuracy</t>
-  </si>
-  <si>
     <t>Linear Regression-Randomoversampling</t>
   </si>
   <si>
     <t>Optimized &amp; Randomoversampling Neural Network</t>
+  </si>
+  <si>
+    <t>DataType</t>
   </si>
 </sst>
 </file>
@@ -425,11 +425,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B52E35-0B30-7B48-B9E1-57C6563B69A1}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -438,7 +436,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -469,7 +467,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1">
         <v>88.5</v>
@@ -520,7 +518,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1">
         <v>90</v>
@@ -534,6 +532,11 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
